--- a/medicine/Enfance/Marie_Pavlenko/Marie_Pavlenko.xlsx
+++ b/medicine/Enfance/Marie_Pavlenko/Marie_Pavlenko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Pavlenko, née en 1974 à Lille, est une écrivaine et poètesse française, autrice d'ouvrages de littérature d'enfance et de jeunesse, de littérature générale et de poésie. Ses livres sont traduits dans une douzaine de langues.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Pavlenko obtient un master de lettres modernes à l'Université Sorbonne-Nouvelle. Elle poursuit ses études à l'école supérieure de journalisme de Lille. Elle s'installe à Paris après avoir vécu un an en Jordanie. Elle exerce le métier de journaliste pendant 15 ans.
-En 2009, elle se met à écrire des ouvrages de fantasy, genre littéraire qu'elle affectionne depuis l'âge de dix ans[1].
+En 2009, elle se met à écrire des ouvrages de fantasy, genre littéraire qu'elle affectionne depuis l'âge de dix ans.
 En 2011, elle publie le Livre de Saskia, une trilogie à destination des adolescents.
 Le roman La Fille-sortilège sort en 2013.
-En 2019, elle publie Un si petit oiseau, l'histoire d'Abigail, future vétérinaire qui à la suite d'un accident se retrouve amputée d'un bras et doit recomposer sa vie[2]. La même année, elle reçoit le prix Babelio Jeune adulte et le prix 15/17 à la Foire du livre de Brive[3].
-Avec le roman Et le désert disparaîtra (2020), et sa nouvelle parue dans le recueil collectif Elle est le vent furieux (2021), Marie Pavlenko s'engage sur le thème de l'écologie[4],[5].
+En 2019, elle publie Un si petit oiseau, l'histoire d'Abigail, future vétérinaire qui à la suite d'un accident se retrouve amputée d'un bras et doit recomposer sa vie. La même année, elle reçoit le prix Babelio Jeune adulte et le prix 15/17 à la Foire du livre de Brive.
+Avec le roman Et le désert disparaîtra (2020), et sa nouvelle parue dans le recueil collectif Elle est le vent furieux (2021), Marie Pavlenko s'engage sur le thème de l'écologie,.
 </t>
         </is>
       </c>
@@ -549,33 +563,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Je suis ton soleil, Flammarion Jeunesse, 2017, 466 p.  (ISBN 978-2-08-139662-3)
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Je suis ton soleil, Flammarion Jeunesse, 2017, 466 p.  (ISBN 978-2-08-139662-3)
 Un si petit oiseau, Flammarion Jeunesse, 2019, 400 p.  (ISBN 9782081396623)
 La Fille-sortilège, Le Pré aux Clercs, coll. « Pandore », 2013, 431 p.  (ISBN 978-2-84228-500-5)Prix Elbakin 2013 du meilleur roman fantasy Jeunesse français
 Et le désert disparaîtra, Flammarion Jeunesse, 2020, 240 p.  (ISBN 978-2-08-149561-6)
 Elle est le vent furieux, Flammarion Jeunesse, 2021, 308 p.  (ISBN 978-2-08-023394-3). Nouvelles, avec Sophie Adriansen, Marie Alhinho, Coline Pierré, Cindy Van Wilder, Flore Vesco
 Un été avec Albert, Flammarion Jeunesse, 2021, 211 p.  (ISBN 978-2-08-023418-6)
-Rita, Flammarion Jeunesse, 2023, 400 p.  (ISBN 978-2-08-043013-7)
-Zombies zarbis
-Panique au cimetière !, Flammarion jeunesse, Carole Trébor (co-autrice), Marc Lizano (illus), 2018, 210 p.  (ISBN 9782081431157)
-Rien ne va plus !, Flammarion jeunesse, Carole Trébor (co-autrice), Marc Lizano (illus), 2018, 232 p.  (ISBN 9782081431140)
-Un pour tous, tous pour eux !, Flammarion jeunesse, Carole Trébor (co-autrice), Marc Lizano (illus), 2019, 240 p.  (ISBN 9782081449404)
-Marjane
-La Crypte, Pocket Jeunesse, 2015, 381 p.  (ISBN 978-2-266-25131-0)
-Le Serment, Pocket Jeunesse, 2016  (ISBN 978-2-266-26752-6)
-Le Livre de Saskia
-Le Réveil, Scrineo jeunesse, 2011, 375 p.  (ISBN 978-2-919755-03-5)Prix Oriande 2012
-L’Épreuve, Scrineo jeunesse, 2012, 405 p.  (ISBN 978-2-919755-11-0)
-Enkidare, Scrineo jeunesse, 2013, 485 p.  (ISBN 978-2-36740-076-1)
-We are family
-Ils étaient deux petits hommes, Delcourt, 2013, 47 p.  (ISBN 978-2-7560-3358-7)Dessin et couleur par Teresa Valero. Prix première bulle du Festival Angers-BD
-Adulte
-Bande-dessinée
-Les Envahissants, Le Livre de poche, coll. « Vie pratique », 2011, 192 p.  (ISBN 978-2-253-13180-9)Illustrations par Marie Voyelle
-Romans
-La Mort est une femme comme les autres, Pygmalion, 2015, 192 p.  (ISBN 978-2-7564-1776-9)
-Bientôt minuit, Flammarion, 2021, 288 p.  (ISBN 978-2-08-020855-2)</t>
+Rita, Flammarion Jeunesse, 2023, 400 p.  (ISBN 978-2-08-043013-7)</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,267 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Zombies zarbis</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Panique au cimetière !, Flammarion jeunesse, Carole Trébor (co-autrice), Marc Lizano (illus), 2018, 210 p.  (ISBN 9782081431157)
+Rien ne va plus !, Flammarion jeunesse, Carole Trébor (co-autrice), Marc Lizano (illus), 2018, 232 p.  (ISBN 9782081431140)
+Un pour tous, tous pour eux !, Flammarion jeunesse, Carole Trébor (co-autrice), Marc Lizano (illus), 2019, 240 p.  (ISBN 9782081449404)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Marjane</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Crypte, Pocket Jeunesse, 2015, 381 p.  (ISBN 978-2-266-25131-0)
+Le Serment, Pocket Jeunesse, 2016  (ISBN 978-2-266-26752-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Le Livre de Saskia</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Réveil, Scrineo jeunesse, 2011, 375 p.  (ISBN 978-2-919755-03-5)Prix Oriande 2012
+L’Épreuve, Scrineo jeunesse, 2012, 405 p.  (ISBN 978-2-919755-11-0)
+Enkidare, Scrineo jeunesse, 2013, 485 p.  (ISBN 978-2-36740-076-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>We are family</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ils étaient deux petits hommes, Delcourt, 2013, 47 p.  (ISBN 978-2-7560-3358-7)Dessin et couleur par Teresa Valero. Prix première bulle du Festival Angers-BD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adulte</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bande-dessinée</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Envahissants, Le Livre de poche, coll. « Vie pratique », 2011, 192 p.  (ISBN 978-2-253-13180-9)Illustrations par Marie Voyelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adulte</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Mort est une femme comme les autres, Pygmalion, 2015, 192 p.  (ISBN 978-2-7564-1776-9)
+Bientôt minuit, Flammarion, 2021, 288 p.  (ISBN 978-2-08-020855-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Pavlenko</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix Oriande du Meilleur roman de féérie 2012, pour Saskia[6]
-Prix Première Bulle 2013 au festival Angers BD[7]
-Prix Tatoulu 2018[8] pour Je suis ton soleil
-Prix A-Fictionados 2018 pour Je suis ton soleil[9]
-Prix Babelio Jeune adulte 2019 et prix 15/17 à la Foire du livre de Brive pour Un si petit oiseau[10]
-Grand prix SGDL du roman jeunesse 2020 pour Et le désert disparaîtra[11].
- Prix Libbylit 2020[12] délivré par l' IBBY, catégorie Roman ado, pour Et le désert disparaîtra 
-Prix Saint-Exupéry 2020[13], catégorie Roman, pour Et le désert disparaîtra </t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Oriande du Meilleur roman de féérie 2012, pour Saskia
+Prix Première Bulle 2013 au festival Angers BD
+Prix Tatoulu 2018 pour Je suis ton soleil
+Prix A-Fictionados 2018 pour Je suis ton soleil
+Prix Babelio Jeune adulte 2019 et prix 15/17 à la Foire du livre de Brive pour Un si petit oiseau
+Grand prix SGDL du roman jeunesse 2020 pour Et le désert disparaîtra.
+ Prix Libbylit 2020 délivré par l' IBBY, catégorie Roman ado, pour Et le désert disparaîtra 
+Prix Saint-Exupéry 2020, catégorie Roman, pour Et le désert disparaîtra </t>
         </is>
       </c>
     </row>
